--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1420693.449531119</v>
+        <v>1365741.560247022</v>
       </c>
     </row>
     <row r="7">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>114.3561196362909</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>54.95694647166349</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>3.329915919761465</v>
+        <v>128.3803163349634</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
@@ -1505,7 +1505,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -1514,7 +1514,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>75.61813689207855</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>124.352026275248</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>219.1383938082314</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.2259534486298</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>96.22747883981371</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
@@ -1745,16 +1745,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.61813689207857</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.0001043529485</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.5182822356084</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>263.2999236329116</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>8.785870819082808</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>77.1790307462142</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>134.7549293585487</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.723908424085</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>167.545498855451</v>
       </c>
       <c r="C21" t="n">
-        <v>79.46920453239291</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>25.16373631803791</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
@@ -2332,10 +2332,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>186.7602972398828</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>46.13808231433301</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>115.1070645654638</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>75.61813689207855</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.916258666856981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>263.7592808210595</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>157.4345834678562</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -2651,7 +2651,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>233.6804009663592</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>198.5849019915267</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>52.42857711587138</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>130.8429709602192</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>74.99309787596034</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -2885,7 +2885,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.863033348313577</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>206.86529889066</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>52.42857711587121</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>361.7038834627505</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>110.136046389873</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3122,7 +3122,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>132.1042106801162</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>134.9442566674387</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>73.35340349906456</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>8.916258666856974</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>72.51896426173553</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>51.11135487930641</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3350,19 +3350,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>15.82861716549376</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>109.1638451536362</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -3410,10 +3410,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>137.4545982671963</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.93456886964954</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>87.63319326612908</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>159.3088692662857</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>3.32991591976124</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>135.006085569396</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.1044229849743</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>76.53519509961433</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.1326662362235</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.98930803262164</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.32991591976124</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>93.56084961252432</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>7.226885210985788</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.104422984974</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>103.6200831979013</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>210.5518240523782</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>49.96370765612112</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4115,16 +4115,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>212.960837712875</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.53519509961431</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>8.916258666856974</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221.6975439683318</v>
+        <v>925.1835177879586</v>
       </c>
       <c r="C11" t="n">
-        <v>221.6975439683318</v>
+        <v>571.4405911403032</v>
       </c>
       <c r="D11" t="n">
-        <v>221.6975439683318</v>
+        <v>571.4405911403032</v>
       </c>
       <c r="E11" t="n">
-        <v>221.6975439683318</v>
+        <v>571.4405911403032</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K11" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5062,31 +5062,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295157</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="U11" t="n">
-        <v>942.6401640759908</v>
+        <v>1266.493077207925</v>
       </c>
       <c r="V11" t="n">
-        <v>618.5191705313928</v>
+        <v>1266.493077207925</v>
       </c>
       <c r="W11" t="n">
-        <v>277.2096111114262</v>
+        <v>925.1835177879586</v>
       </c>
       <c r="X11" t="n">
-        <v>221.6975439683318</v>
+        <v>925.1835177879586</v>
       </c>
       <c r="Y11" t="n">
-        <v>221.6975439683318</v>
+        <v>925.1835177879586</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.67820428854765</v>
+        <v>584.5330996259895</v>
       </c>
       <c r="C12" t="n">
-        <v>37.67820428854765</v>
+        <v>395.1208253589532</v>
       </c>
       <c r="D12" t="n">
-        <v>34.31465285444516</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="E12" t="n">
-        <v>34.31465285444516</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444516</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443595</v>
+        <v>337.3144331656368</v>
       </c>
       <c r="M12" t="n">
-        <v>770.1254798029028</v>
+        <v>712.2060427186983</v>
       </c>
       <c r="N12" t="n">
-        <v>1173.359244302914</v>
+        <v>1115.439807218709</v>
       </c>
       <c r="O12" t="n">
-        <v>1486.492278349808</v>
+        <v>1428.572841265603</v>
       </c>
       <c r="P12" t="n">
-        <v>1715.732642722258</v>
+        <v>1657.813205638053</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025982</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062323</v>
+        <v>1079.57236196037</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365236</v>
+        <v>810.1737926906618</v>
       </c>
       <c r="X12" t="n">
-        <v>263.31889735322</v>
+        <v>810.1737926906618</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.67820428854765</v>
+        <v>584.5330996259895</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K13" t="n">
         <v>42.2304192451457</v>
@@ -5220,31 +5220,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651434</v>
+        <v>258.475718923377</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651434</v>
+        <v>258.475718923377</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651434</v>
+        <v>258.475718923377</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651434</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>495.5570580264176</v>
+        <v>1130.963846658685</v>
       </c>
       <c r="C14" t="n">
-        <v>495.5570580264176</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="D14" t="n">
-        <v>495.5570580264176</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="E14" t="n">
-        <v>495.5570580264176</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5570580264176</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G14" t="n">
-        <v>495.5570580264176</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H14" t="n">
-        <v>159.9227602031805</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
         <v>856.6460009292778</v>
@@ -5299,31 +5299,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U14" t="n">
-        <v>1160.987610990982</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V14" t="n">
-        <v>836.8666174463841</v>
+        <v>1494.38072978465</v>
       </c>
       <c r="W14" t="n">
-        <v>495.5570580264176</v>
+        <v>1494.38072978465</v>
       </c>
       <c r="X14" t="n">
-        <v>495.5570580264176</v>
+        <v>1130.963846658685</v>
       </c>
       <c r="Y14" t="n">
-        <v>495.5570580264176</v>
+        <v>1130.963846658685</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.31465285444515</v>
+        <v>992.7546545480308</v>
       </c>
       <c r="C15" t="n">
-        <v>34.31465285444515</v>
+        <v>803.3423802809945</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444515</v>
+        <v>642.5622640420262</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444515</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444515</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444515</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444515</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025866</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K15" t="n">
-        <v>54.40930111025866</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L15" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M15" t="n">
-        <v>712.2060427186983</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N15" t="n">
-        <v>1115.439807218709</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O15" t="n">
-        <v>1428.572841265603</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P15" t="n">
-        <v>1657.813205638053</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288802</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1322.652080056736</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U15" t="n">
-        <v>1083.078954384283</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V15" t="n">
-        <v>839.9992362879175</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="W15" t="n">
-        <v>570.6006670182088</v>
+        <v>992.7546545480308</v>
       </c>
       <c r="X15" t="n">
-        <v>351.0926726349052</v>
+        <v>992.7546545480308</v>
       </c>
       <c r="Y15" t="n">
-        <v>125.4519795702328</v>
+        <v>992.7546545480308</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="E16" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="F16" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="G16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
         <v>42.2304192451457</v>
@@ -5457,31 +5457,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S16" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T16" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U16" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V16" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W16" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1005.732691793909</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C17" t="n">
-        <v>1005.732691793909</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D17" t="n">
-        <v>1005.732691793909</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E17" t="n">
-        <v>1005.732691793909</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
@@ -5536,31 +5536,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R17" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S17" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T17" t="n">
-        <v>1391.879729590323</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U17" t="n">
-        <v>1391.879729590323</v>
+        <v>1463.171660503091</v>
       </c>
       <c r="V17" t="n">
-        <v>1391.879729590323</v>
+        <v>1463.171660503091</v>
       </c>
       <c r="W17" t="n">
-        <v>1391.879729590323</v>
+        <v>1197.212141681968</v>
       </c>
       <c r="X17" t="n">
-        <v>1391.879729590323</v>
+        <v>833.7952585560026</v>
       </c>
       <c r="Y17" t="n">
-        <v>1005.732691793909</v>
+        <v>833.7952585560026</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>216.7524737220032</v>
+        <v>908.3382686120787</v>
       </c>
       <c r="C18" t="n">
-        <v>216.7524737220032</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="D18" t="n">
-        <v>216.7524737220032</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E18" t="n">
-        <v>43.18926984341769</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F18" t="n">
-        <v>43.18926984341769</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="K18" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2338702498412</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029028</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N18" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O18" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P18" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R18" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T18" t="n">
-        <v>1413.952574208507</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U18" t="n">
-        <v>1174.379448536054</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="V18" t="n">
-        <v>931.2997304396879</v>
+        <v>1205.80487991075</v>
       </c>
       <c r="W18" t="n">
-        <v>661.9011611699792</v>
+        <v>1127.846262995382</v>
       </c>
       <c r="X18" t="n">
-        <v>442.3931667866756</v>
+        <v>908.3382686120787</v>
       </c>
       <c r="Y18" t="n">
-        <v>216.7524737220032</v>
+        <v>908.3382686120787</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K19" t="n">
         <v>42.2304192451457</v>
@@ -5694,31 +5694,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R19" t="n">
-        <v>84.81980876651434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="S19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="T19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="U19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="V19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="W19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.31465285444516</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444516</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444516</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J20" t="n">
         <v>79.26440887602973</v>
@@ -5773,31 +5773,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S20" t="n">
-        <v>1701.870108960556</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T20" t="n">
-        <v>1701.870108960556</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U20" t="n">
-        <v>1449.30912674139</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V20" t="n">
-        <v>1125.188133196792</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="W20" t="n">
-        <v>783.8785737768251</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="X20" t="n">
-        <v>420.4616906508592</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.31465285444516</v>
+        <v>1715.732642722257</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>959.9780343541045</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7061105840106</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9259943450423</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025866</v>
       </c>
       <c r="K21" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>304.6946924676438</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M21" t="n">
-        <v>679.5863020207054</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N21" t="n">
         <v>1082.820066520716</v>
@@ -5852,31 +5852,31 @@
         <v>1625.19346494006</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R21" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007117</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U21" t="n">
-        <v>1448.884598007117</v>
+        <v>995.3051791025978</v>
       </c>
       <c r="V21" t="n">
-        <v>1448.884598007117</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="W21" t="n">
-        <v>1179.486028737408</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="X21" t="n">
-        <v>959.9780343541045</v>
+        <v>752.2254610062319</v>
       </c>
       <c r="Y21" t="n">
-        <v>959.9780343541045</v>
+        <v>526.5847679415594</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1715.732642722258</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F22" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G22" t="n">
-        <v>1545.980103546879</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1519.054059427091</v>
+        <v>1005.464611381246</v>
       </c>
       <c r="C23" t="n">
-        <v>1493.636143954326</v>
+        <v>1005.464611381246</v>
       </c>
       <c r="D23" t="n">
-        <v>1152.452144315712</v>
+        <v>1005.464611381246</v>
       </c>
       <c r="E23" t="n">
-        <v>777.2209200110292</v>
+        <v>630.2333870765627</v>
       </c>
       <c r="F23" t="n">
-        <v>369.9489506776823</v>
+        <v>222.9614177432157</v>
       </c>
       <c r="G23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
         <v>79.26440887602973</v>
@@ -6010,31 +6010,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1519.054059427091</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1519.054059427091</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U23" t="n">
-        <v>1519.054059427091</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V23" t="n">
-        <v>1519.054059427091</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W23" t="n">
-        <v>1519.054059427091</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X23" t="n">
-        <v>1519.054059427091</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="Y23" t="n">
-        <v>1519.054059427091</v>
+        <v>1005.464611381246</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>223.7269271214814</v>
+        <v>430.7587669540687</v>
       </c>
       <c r="C24" t="n">
-        <v>34.31465285444515</v>
+        <v>241.3464926870324</v>
       </c>
       <c r="D24" t="n">
-        <v>34.31465285444515</v>
+        <v>241.3464926870324</v>
       </c>
       <c r="E24" t="n">
-        <v>34.31465285444515</v>
+        <v>241.3464926870324</v>
       </c>
       <c r="F24" t="n">
-        <v>34.31465285444515</v>
+        <v>80.91877640427649</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444515</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K24" t="n">
-        <v>34.31465285444515</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>304.6946924676434</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M24" t="n">
-        <v>679.5863020207049</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N24" t="n">
         <v>1082.820066520716</v>
@@ -6089,31 +6089,31 @@
         <v>1625.19346494006</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S24" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T24" t="n">
-        <v>1599.46288053492</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U24" t="n">
-        <v>1359.889754862467</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V24" t="n">
-        <v>1116.810036766101</v>
+        <v>1145.306023671753</v>
       </c>
       <c r="W24" t="n">
-        <v>847.4114674963926</v>
+        <v>875.9074544020447</v>
       </c>
       <c r="X24" t="n">
-        <v>627.9034731130889</v>
+        <v>656.399460018741</v>
       </c>
       <c r="Y24" t="n">
-        <v>402.2627800484165</v>
+        <v>430.7587669540687</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
         <v>42.2304192451457</v>
@@ -6174,25 +6174,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="T25" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="U25" t="n">
-        <v>43.32097474015927</v>
+        <v>258.475718923377</v>
       </c>
       <c r="V25" t="n">
-        <v>43.32097474015927</v>
+        <v>258.475718923377</v>
       </c>
       <c r="W25" t="n">
-        <v>43.32097474015927</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X25" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.31465285444516</v>
+        <v>1170.560773140131</v>
       </c>
       <c r="C26" t="n">
-        <v>34.31465285444516</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F26" t="n">
         <v>34.31465285444516</v>
@@ -6226,19 +6226,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K26" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L26" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M26" t="n">
         <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6262,16 +6262,16 @@
         <v>1715.732642722258</v>
       </c>
       <c r="V26" t="n">
-        <v>1391.61164917766</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W26" t="n">
-        <v>1050.302089757693</v>
+        <v>1556.707810936545</v>
       </c>
       <c r="X26" t="n">
-        <v>686.8852066317274</v>
+        <v>1556.707810936545</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.7381688353134</v>
+        <v>1170.560773140131</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>533.6236769809974</v>
+        <v>826.6782168913645</v>
       </c>
       <c r="C27" t="n">
-        <v>344.2114027139611</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="D27" t="n">
-        <v>344.2114027139611</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E27" t="n">
-        <v>344.2114027139611</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F27" t="n">
-        <v>183.7836864312052</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H27" t="n">
         <v>34.31465285444516</v>
@@ -6308,22 +6308,22 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O27" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
@@ -6335,22 +6335,22 @@
         <v>1448.884598007117</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775051</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025982</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V27" t="n">
-        <v>759.2643700456697</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W27" t="n">
-        <v>759.2643700456697</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="X27" t="n">
-        <v>759.2643700456697</v>
+        <v>1005.2140698183</v>
       </c>
       <c r="Y27" t="n">
-        <v>533.6236769809974</v>
+        <v>1005.2140698183</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1415.189620196681</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="C28" t="n">
-        <v>1415.189620196681</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="D28" t="n">
-        <v>1415.189620196681</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="E28" t="n">
-        <v>1415.189620196681</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="F28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L28" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N28" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R28" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S28" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T28" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U28" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V28" t="n">
-        <v>1468.147778899581</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.189620196681</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X28" t="n">
-        <v>1415.189620196681</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="Y28" t="n">
-        <v>1415.189620196681</v>
+        <v>108.4089998231972</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>795.3295488354476</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="C29" t="n">
-        <v>441.5866221877922</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D29" t="n">
-        <v>441.5866221877922</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E29" t="n">
-        <v>441.5866221877922</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
         <v>34.31465285444516</v>
@@ -6460,22 +6460,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.3146528544453</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602999</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193745</v>
       </c>
       <c r="L29" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M29" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292774</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
@@ -6496,19 +6496,19 @@
         <v>1195.201146295157</v>
       </c>
       <c r="U29" t="n">
-        <v>1119.450542380046</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V29" t="n">
-        <v>795.3295488354476</v>
+        <v>871.080152750559</v>
       </c>
       <c r="W29" t="n">
-        <v>795.3295488354476</v>
+        <v>871.080152750559</v>
       </c>
       <c r="X29" t="n">
-        <v>795.3295488354476</v>
+        <v>507.6632696245932</v>
       </c>
       <c r="Y29" t="n">
-        <v>795.3295488354476</v>
+        <v>507.6632696245932</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>529.0856892547549</v>
+        <v>722.4000174089766</v>
       </c>
       <c r="C30" t="n">
-        <v>529.0856892547549</v>
+        <v>532.9877431419403</v>
       </c>
       <c r="D30" t="n">
-        <v>368.3055730157866</v>
+        <v>372.207626902972</v>
       </c>
       <c r="E30" t="n">
-        <v>194.7423691372011</v>
+        <v>198.6444230243865</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444516</v>
+        <v>38.21670674163059</v>
       </c>
       <c r="G30" t="n">
         <v>34.31465285444516</v>
@@ -6542,16 +6542,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K30" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>395.2338702498412</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M30" t="n">
-        <v>770.1254798029028</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N30" t="n">
         <v>1173.359244302914</v>
@@ -6566,28 +6566,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S30" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T30" t="n">
-        <v>1506.777795357955</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U30" t="n">
-        <v>1267.204669685502</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="V30" t="n">
-        <v>1024.124951589136</v>
+        <v>991.7985866786853</v>
       </c>
       <c r="W30" t="n">
-        <v>754.7263823194273</v>
+        <v>722.4000174089766</v>
       </c>
       <c r="X30" t="n">
-        <v>754.7263823194273</v>
+        <v>722.4000174089766</v>
       </c>
       <c r="Y30" t="n">
-        <v>529.0856892547549</v>
+        <v>722.4000174089766</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>334.857675380022</v>
       </c>
       <c r="S31" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="T31" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U31" t="n">
-        <v>281.8995166771218</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V31" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W31" t="n">
         <v>34.31465285444516</v>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>922.6892998347512</v>
+        <v>974.4498602247432</v>
       </c>
       <c r="C32" t="n">
-        <v>922.6892998347512</v>
+        <v>974.4498602247432</v>
       </c>
       <c r="D32" t="n">
-        <v>922.6892998347512</v>
+        <v>974.4498602247432</v>
       </c>
       <c r="E32" t="n">
-        <v>922.6892998347512</v>
+        <v>974.4498602247432</v>
       </c>
       <c r="F32" t="n">
-        <v>922.6892998347512</v>
+        <v>567.1778908913963</v>
       </c>
       <c r="G32" t="n">
-        <v>557.3318417915689</v>
+        <v>145.5631845613876</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K32" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V32" t="n">
-        <v>1286.106182960717</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W32" t="n">
-        <v>1286.106182960717</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X32" t="n">
-        <v>922.6892998347512</v>
+        <v>1352.315759596292</v>
       </c>
       <c r="Y32" t="n">
-        <v>922.6892998347512</v>
+        <v>1352.315759596292</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9669970985512</v>
+        <v>851.9365601683733</v>
       </c>
       <c r="C33" t="n">
-        <v>678.5547228315149</v>
+        <v>662.524285901337</v>
       </c>
       <c r="D33" t="n">
-        <v>517.7746065925467</v>
+        <v>501.7441696623687</v>
       </c>
       <c r="E33" t="n">
-        <v>344.2114027139611</v>
+        <v>328.1809657837831</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312052</v>
+        <v>167.7532495010272</v>
       </c>
       <c r="G33" t="n">
         <v>34.31465285444516</v>
@@ -6779,7 +6779,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
         <v>112.3287381944631</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T33" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U33" t="n">
-        <v>1627.958867440572</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="V33" t="n">
-        <v>1627.958867440572</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="W33" t="n">
-        <v>1491.651537473462</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="X33" t="n">
-        <v>1272.143543090159</v>
+        <v>1077.577253233046</v>
       </c>
       <c r="Y33" t="n">
-        <v>1046.502850025486</v>
+        <v>851.9365601683733</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
         <v>34.31465285444516</v>
@@ -6885,25 +6885,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U34" t="n">
-        <v>108.4089998231972</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>441.5866221877922</v>
+        <v>482.7973562113863</v>
       </c>
       <c r="C35" t="n">
-        <v>441.5866221877922</v>
+        <v>482.7973562113863</v>
       </c>
       <c r="D35" t="n">
-        <v>441.5866221877922</v>
+        <v>482.7973562113863</v>
       </c>
       <c r="E35" t="n">
-        <v>441.5866221877922</v>
+        <v>107.5661319067033</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444516</v>
+        <v>107.5661319067033</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>107.5661319067033</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>107.5661319067033</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389726</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
@@ -6964,25 +6964,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T35" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U35" t="n">
-        <v>1143.573515103939</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V35" t="n">
-        <v>819.452521559341</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W35" t="n">
-        <v>819.452521559341</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X35" t="n">
-        <v>819.452521559341</v>
+        <v>1246.810293379349</v>
       </c>
       <c r="Y35" t="n">
-        <v>819.452521559341</v>
+        <v>860.6632555829351</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>400.4955455478171</v>
+        <v>826.6782168913645</v>
       </c>
       <c r="C36" t="n">
-        <v>211.0832712807808</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="D36" t="n">
-        <v>50.3031550418126</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E36" t="n">
-        <v>50.3031550418126</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F36" t="n">
-        <v>50.3031550418126</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G36" t="n">
-        <v>50.3031550418126</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H36" t="n">
         <v>34.31465285444516</v>
@@ -7016,52 +7016,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L36" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M36" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N36" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P36" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288803</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288803</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U36" t="n">
-        <v>1536.658373288803</v>
+        <v>1517.692357184374</v>
       </c>
       <c r="V36" t="n">
-        <v>1293.578655192437</v>
+        <v>1274.612639088008</v>
       </c>
       <c r="W36" t="n">
-        <v>1024.180085922728</v>
+        <v>1005.2140698183</v>
       </c>
       <c r="X36" t="n">
-        <v>804.6720915394246</v>
+        <v>1005.2140698183</v>
       </c>
       <c r="Y36" t="n">
-        <v>579.0313984747522</v>
+        <v>1005.2140698183</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1698.6270176014</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="C37" t="n">
-        <v>1698.6270176014</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="D37" t="n">
-        <v>1698.6270176014</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="E37" t="n">
-        <v>1555.519804255718</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U37" t="n">
-        <v>1698.6270176014</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V37" t="n">
-        <v>1698.6270176014</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W37" t="n">
-        <v>1698.6270176014</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X37" t="n">
-        <v>1698.6270176014</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y37" t="n">
-        <v>1698.6270176014</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C38" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D38" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E38" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F38" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
         <v>34.31465285444516</v>
@@ -7198,28 +7198,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1610.227176505315</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="S38" t="n">
-        <v>1610.227176505315</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="T38" t="n">
-        <v>1610.227176505315</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="U38" t="n">
-        <v>1449.30912674139</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="V38" t="n">
-        <v>1125.188133196792</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="W38" t="n">
-        <v>783.8785737768251</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="X38" t="n">
-        <v>420.4616906508592</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.31465285444516</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37.67820428854742</v>
+        <v>908.3382686120787</v>
       </c>
       <c r="C39" t="n">
-        <v>37.67820428854742</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="D39" t="n">
-        <v>34.31465285444516</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E39" t="n">
-        <v>34.31465285444516</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F39" t="n">
-        <v>34.31465285444516</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M39" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
@@ -7283,22 +7283,22 @@
         <v>1448.884598007116</v>
       </c>
       <c r="T39" t="n">
-        <v>1234.878304775051</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U39" t="n">
-        <v>995.305179102598</v>
+        <v>1312.514814603686</v>
       </c>
       <c r="V39" t="n">
-        <v>752.2254610062321</v>
+        <v>1312.514814603686</v>
       </c>
       <c r="W39" t="n">
-        <v>482.8268917365234</v>
+        <v>1312.514814603686</v>
       </c>
       <c r="X39" t="n">
-        <v>263.3188973532198</v>
+        <v>1312.514814603686</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.67820428854742</v>
+        <v>1086.874121539014</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.091811424304</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K41" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O41" t="n">
         <v>1460.632785841149</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1596.096562330949</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1377.749115415958</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722258</v>
+        <v>1125.188133196792</v>
       </c>
       <c r="V41" t="n">
-        <v>1715.732642722258</v>
+        <v>1125.188133196792</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.732642722258</v>
+        <v>783.8785737768251</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.732642722258</v>
+        <v>420.4616906508592</v>
       </c>
       <c r="Y41" t="n">
-        <v>1329.585604925844</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.67820428854742</v>
+        <v>397.2901310000669</v>
       </c>
       <c r="C42" t="n">
-        <v>37.67820428854742</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D42" t="n">
-        <v>37.67820428854742</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E42" t="n">
-        <v>37.67820428854742</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F42" t="n">
-        <v>37.67820428854742</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>37.67820428854742</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
         <v>34.31465285444516</v>
@@ -7499,16 +7499,16 @@
         <v>498.4142537443595</v>
       </c>
       <c r="M42" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1448.884598007116</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T42" t="n">
-        <v>1234.878304775051</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U42" t="n">
-        <v>995.305179102598</v>
+        <v>1533.452958741052</v>
       </c>
       <c r="V42" t="n">
-        <v>752.2254610062321</v>
+        <v>1290.373240644687</v>
       </c>
       <c r="W42" t="n">
-        <v>482.8268917365234</v>
+        <v>1020.974671374978</v>
       </c>
       <c r="X42" t="n">
-        <v>263.3188973532198</v>
+        <v>801.4666769916744</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.67820428854742</v>
+        <v>575.825983927002</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="C43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="D43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="E43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="F43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="G43" t="n">
-        <v>181.2168440820685</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>181.2168440820685</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
         <v>34.31465285444516</v>
@@ -7593,28 +7593,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R43" t="n">
-        <v>181.2168440820685</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S43" t="n">
-        <v>181.2168440820685</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T43" t="n">
-        <v>181.2168440820685</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U43" t="n">
-        <v>181.2168440820685</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V43" t="n">
-        <v>181.2168440820685</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.2168440820685</v>
+        <v>41.61453690594595</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
         <v>34.31465285444516</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1611.065892017307</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1414.387308722141</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1196.039861807149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>943.4788795879829</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V44" t="n">
-        <v>943.4788795879829</v>
+        <v>1503.05403256834</v>
       </c>
       <c r="W44" t="n">
-        <v>943.4788795879829</v>
+        <v>1161.744473148374</v>
       </c>
       <c r="X44" t="n">
-        <v>943.4788795879829</v>
+        <v>798.327590022408</v>
       </c>
       <c r="Y44" t="n">
-        <v>557.3318417915689</v>
+        <v>412.180552225994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>84.78304442628468</v>
+        <v>867.9669970985512</v>
       </c>
       <c r="C45" t="n">
-        <v>84.78304442628468</v>
+        <v>678.5547228315149</v>
       </c>
       <c r="D45" t="n">
-        <v>84.78304442628468</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E45" t="n">
-        <v>84.78304442628468</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F45" t="n">
-        <v>84.78304442628468</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G45" t="n">
         <v>34.31465285444516</v>
@@ -7730,49 +7730,49 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K45" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186984</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.43980721871</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.572841265604</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U45" t="n">
-        <v>995.305179102598</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V45" t="n">
-        <v>752.2254610062321</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="W45" t="n">
-        <v>482.8268917365234</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="X45" t="n">
-        <v>263.3188973532198</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="Y45" t="n">
-        <v>263.3188973532198</v>
+        <v>867.9669970985512</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="G46" t="n">
         <v>34.31465285444516</v>
@@ -7836,22 +7836,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T46" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U46" t="n">
-        <v>43.32097474015927</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444516</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>197.5542717195775</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
         <v>310.6138585746227</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.67636752131757</v>
+        <v>103.1808494245542</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9020,13 +9020,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913207</v>
+        <v>59.54645836938593</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.1808494245542</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>67.15086399372845</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9254,7 +9254,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,16 +9482,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>207.3553107283658</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9716,19 +9716,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>227.6529352291871</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1808494245542</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>87.44848849455019</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,7 +10202,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489842002</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
-        <v>67.15086399372845</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K36" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.1808494245546</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476181</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11147,19 +11147,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880645</v>
       </c>
       <c r="N42" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
-        <v>151.0001733008984</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11378,7 +11378,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11393,10 +11393,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882569</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1808494245539</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23260,7 +23260,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
@@ -23269,16 +23269,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>288.8431300037225</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>304.8257678230426</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23339,10 +23339,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>155.8423991568171</v>
+        <v>30.79199874161512</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -23351,13 +23351,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258737</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0023972007068</v>
+        <v>145.3842603086282</v>
       </c>
       <c r="U13" t="n">
         <v>288.6213336334641</v>
@@ -23481,7 +23481,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -23497,7 +23497,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
@@ -23506,7 +23506,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>417.3985592667085</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.15703592749981</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>101.7413898009206</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.52454094903594</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>75.60009299998596</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0550137836253</v>
+        <v>92.4368768915467</v>
       </c>
       <c r="H16" t="n">
         <v>160.0829940331247</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -23743,16 +23743,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>376.6809674044051</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>74.59654019285529</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>139.1884724219097</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>189.5255528307974</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>24.58419038258737</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>101.0407884212465</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>239.3323110192847</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
@@ -24019,25 +24019,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>180.9878890381296</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>9.204995542214732</v>
       </c>
       <c r="C21" t="n">
-        <v>108.048946991973</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.6169206649681</v>
+        <v>46.53650933661933</v>
       </c>
       <c r="C22" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>145.1826502507107</v>
@@ -24141,10 +24141,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H22" t="n">
-        <v>30.60041551642877</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I22" t="n">
         <v>145.433169315347</v>
@@ -24208,10 +24208,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>325.0417610631409</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>230.6382620268257</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24256,7 +24256,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
@@ -24265,7 +24265,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24274,7 +24274,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24296,10 +24296,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>101.8362609266595</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>96.75916573428108</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
-        <v>224.1841888012565</v>
+        <v>148.566051909178</v>
       </c>
       <c r="T25" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24429,10 +24429,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.2250141473114</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.3279595567738</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>417.3985592667085</v>
@@ -24502,13 +24502,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>180.4618803579107</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,7 +24530,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>80.84345120350706</v>
@@ -24575,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>6.968519949043014</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>18.72801244794394</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>65.57347871938209</v>
       </c>
       <c r="G28" t="n">
         <v>168.0550137836253</v>
@@ -24651,7 +24651,7 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.0023972007068</v>
@@ -24660,10 +24660,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>237.8821299734639</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>243.2442694176141</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>417.3985592667085</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>175.0422745210142</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24761,7 +24761,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>144.1113098926789</v>
       </c>
       <c r="H30" t="n">
         <v>118.2964226714636</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>5.000931409084842</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24888,19 +24888,19 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>224.1841888012565</v>
+        <v>216.9573035902708</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>236.1927565175929</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -24928,16 +24928,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>55.69467580395803</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>222.1419084551316</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
@@ -24976,7 +24976,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.87013256087627</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>131.7603269095729</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>68.32273771316044</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -25125,16 +25125,16 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175929</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25162,10 +25162,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>417.3985592667085</v>
@@ -25174,7 +25174,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>112.9900979410122</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>198.9240175176681</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>102.4678055059698</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350706</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>128.0135492620922</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>40.16232239777176</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25320,16 +25320,16 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>145.433169315347</v>
@@ -25368,7 +25368,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>271.6867647638146</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25402,10 +25402,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>16.81721828864441</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
@@ -25447,16 +25447,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>90.72650313068885</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>155.8423991568173</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,19 +25523,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>102.1713088463324</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>7.978571048150485</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
         <v>74.58429473553586</v>
@@ -25599,10 +25599,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
-        <v>224.1841888012565</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26.95457414160984</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>180.7224894295929</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25724,7 +25724,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9665067517024</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350706</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>143.6165448032041</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>160.8281285726395</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
         <v>74.58429473553586</v>
@@ -25833,7 +25833,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R43" t="n">
-        <v>22.28976893533704</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
         <v>224.1841888012565</v>
@@ -25848,7 +25848,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25882,10 +25882,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8303283568722151</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>110.3279595567738</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>98.01063558487135</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>10.42344842115057</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0550137836253</v>
+        <v>91.51981868401096</v>
       </c>
       <c r="H46" t="n">
         <v>160.0829940331247</v>
@@ -26076,13 +26076,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
-        <v>236.1927565175929</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>584703.954583729</v>
+        <v>584703.9545837288</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>584703.954583729</v>
+        <v>584703.9545837292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>584703.954583729</v>
+        <v>584703.9545837289</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>584703.9545837292</v>
+        <v>584703.9545837288</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>584703.954583729</v>
+        <v>584703.9545837289</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>584703.9545837289</v>
+        <v>584703.954583729</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>584703.9545837289</v>
+        <v>584703.954583729</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>584703.954583729</v>
+        <v>584703.9545837289</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>573255.7968646989</v>
       </c>
       <c r="C2" t="n">
-        <v>573255.796864699</v>
+        <v>573255.7968646989</v>
       </c>
       <c r="D2" t="n">
         <v>573255.7968646991</v>
@@ -26328,34 +26328,34 @@
         <v>325600.7626641425</v>
       </c>
       <c r="G2" t="n">
+        <v>325600.7626641427</v>
+      </c>
+      <c r="H2" t="n">
         <v>325600.7626641426</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>325600.7626641424</v>
+      </c>
+      <c r="J2" t="n">
+        <v>325600.7626641426</v>
+      </c>
+      <c r="K2" t="n">
+        <v>325600.7626641426</v>
+      </c>
+      <c r="L2" t="n">
+        <v>325600.7626641424</v>
+      </c>
+      <c r="M2" t="n">
+        <v>325600.7626641424</v>
+      </c>
+      <c r="N2" t="n">
         <v>325600.7626641425</v>
       </c>
-      <c r="I2" t="n">
-        <v>325600.7626641425</v>
-      </c>
-      <c r="J2" t="n">
-        <v>325600.7626641425</v>
-      </c>
-      <c r="K2" t="n">
-        <v>325600.7626641425</v>
-      </c>
-      <c r="L2" t="n">
-        <v>325600.7626641426</v>
-      </c>
-      <c r="M2" t="n">
-        <v>325600.7626641425</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>325600.7626641424</v>
       </c>
-      <c r="O2" t="n">
-        <v>325600.7626641426</v>
-      </c>
       <c r="P2" t="n">
-        <v>325600.7626641427</v>
+        <v>325600.7626641424</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742393</v>
+        <v>106891.8593742394</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>414368.6261668352</v>
       </c>
       <c r="C4" t="n">
-        <v>414368.6261668352</v>
+        <v>414368.6261668353</v>
       </c>
       <c r="D4" t="n">
         <v>414368.6261668352</v>
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36091.33751189044</v>
+      </c>
+      <c r="F5" t="n">
         <v>36091.33751189045</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>36091.33751189044</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>36091.33751189044</v>
+      </c>
+      <c r="I5" t="n">
         <v>36091.33751189045</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36091.33751189045</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36091.33751189044</v>
       </c>
       <c r="J5" t="n">
         <v>36091.33751189045</v>
@@ -26502,7 +26502,7 @@
         <v>36091.33751189045</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125259.5706978637</v>
+        <v>125214.9068558118</v>
       </c>
       <c r="C6" t="n">
-        <v>125259.5706978638</v>
+        <v>125214.9068558117</v>
       </c>
       <c r="D6" t="n">
-        <v>125259.5706978639</v>
+        <v>125214.906855812</v>
       </c>
       <c r="E6" t="n">
-        <v>-241552.7423761959</v>
+        <v>-251122.5998413461</v>
       </c>
       <c r="F6" t="n">
-        <v>255500.4094412964</v>
+        <v>245930.5519761462</v>
       </c>
       <c r="G6" t="n">
-        <v>255500.4094412965</v>
+        <v>245930.5519761464</v>
       </c>
       <c r="H6" t="n">
-        <v>255500.4094412964</v>
+        <v>245930.5519761463</v>
       </c>
       <c r="I6" t="n">
-        <v>255500.4094412964</v>
+        <v>245930.551976146</v>
       </c>
       <c r="J6" t="n">
-        <v>255500.4094412964</v>
+        <v>245930.5519761463</v>
       </c>
       <c r="K6" t="n">
-        <v>255500.4094412964</v>
+        <v>245930.5519761463</v>
       </c>
       <c r="L6" t="n">
-        <v>255500.4094412965</v>
+        <v>245930.5519761461</v>
       </c>
       <c r="M6" t="n">
-        <v>148608.5500670571</v>
+        <v>139038.6926019067</v>
       </c>
       <c r="N6" t="n">
-        <v>255500.4094412963</v>
+        <v>245930.5519761461</v>
       </c>
       <c r="O6" t="n">
-        <v>255500.4094412965</v>
+        <v>245930.5519761461</v>
       </c>
       <c r="P6" t="n">
-        <v>255500.4094412966</v>
+        <v>245930.5519761461</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805644</v>
+      </c>
+      <c r="F4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>428.9331606805644</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>428.9331606805644</v>
+      </c>
+      <c r="I4" t="n">
         <v>428.9331606805645</v>
-      </c>
-      <c r="H4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="I4" t="n">
-        <v>428.9331606805644</v>
       </c>
       <c r="J4" t="n">
         <v>428.9331606805645</v>
@@ -26822,7 +26822,7 @@
         <v>428.9331606805645</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805644</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805643</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>274.4557838975185</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
         <v>407.306832828294</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>58.50448190323659</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518971</v>
@@ -35740,13 +35740,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>120.6196694648268</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.50448190323659</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K18" t="n">
-        <v>58.50448190323679</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518971</v>
@@ -35974,7 +35974,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867616</v>
@@ -35983,7 +35983,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
-        <v>252.8135266236214</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M21" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>273.1111511244426</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M24" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
@@ -36676,7 +36676,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518971</v>
@@ -36685,7 +36685,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.50448190323659</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K30" t="n">
-        <v>78.80210640405852</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36922,7 +36922,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>303.0842232378716</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>58.50448190323679</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518971</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
@@ -37405,7 +37405,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.50448190323704</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37633,7 +37633,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063586</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002249</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6783934879409</v>
+        <v>183.0020689660055</v>
       </c>
       <c r="N42" t="n">
         <v>407.306832828294</v>
       </c>
       <c r="O42" t="n">
-        <v>212.0733843963393</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P42" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518971</v>
@@ -38113,10 +38113,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P45" t="n">
-        <v>231.5559236085354</v>
+        <v>127.333314018113</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.50448190323635</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
